--- a/data/trans_dic/P31_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>35,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,73; 38,12</t>
+          <t>27,7; 37,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,22</t>
+          <t>28,12; 35,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,09; 40,54</t>
+          <t>31,3; 40,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,27; 35,5</t>
+          <t>22,34; 30,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,09; 44,19</t>
+          <t>26,0; 33,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,9; 37,83</t>
+          <t>22,78; 29,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,72; 35,57</t>
+          <t>28,78; 36,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,22</t>
+          <t>36,99; 43,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 37,99</t>
+          <t>31,45; 38,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31,68; 39,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 40,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32,12; 39,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>29,36; 35,12</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,75; 39,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>32,77; 38,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 34,49</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>30,48; 35,58</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>28,6; 33,37</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>31,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>37,14%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,83%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>37,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>34,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>35,27%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>36,2%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>34,96%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 38,85</t>
+          <t>26,38; 37,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,35; 37,68</t>
+          <t>27,92; 36,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,96; 38,61</t>
+          <t>29,42; 39,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,63; 41,77</t>
+          <t>22,73; 32,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,45; 44,85</t>
+          <t>26,11; 39,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,25; 41,66</t>
+          <t>25,84; 37,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,75; 38,37</t>
+          <t>32,66; 41,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,2; 40,33</t>
+          <t>38,02; 45,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,01; 38,15</t>
+          <t>33,63; 41,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38,41; 48,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,54; 46,19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 46,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 37,99</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33,86; 40,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>32,58; 39,06</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>31,75; 39,02</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>30,95; 40,76</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30,62; 40,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>46,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>35,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,36; 46,82</t>
+          <t>24,87; 46,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,61; 47,58</t>
+          <t>29,87; 48,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,38; 42,56</t>
+          <t>25,65; 43,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 42,72</t>
+          <t>18,06; 39,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,76; 56,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,99; 53,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 41,07</t>
+          <t>28,12; 44,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,65; 49,13</t>
+          <t>40,69; 56,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,22; 45,2</t>
+          <t>38,55; 54,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 46,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>29,02; 42,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>37,67; 49,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>33,91; 45,38</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>25,84; 39,31</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>37,38%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>33,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>37,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 36,93</t>
+          <t>28,6; 35,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,43; 36,38</t>
+          <t>30,05; 35,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 37,21</t>
+          <t>31,2; 37,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,49; 36,94</t>
+          <t>23,99; 30,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,29; 44,38</t>
+          <t>27,15; 33,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 39,5</t>
+          <t>24,62; 30,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,36; 35,86</t>
+          <t>32,03; 37,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,62; 39,42</t>
+          <t>39,45; 44,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 37,59</t>
+          <t>35,03; 40,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 41,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,58; 40,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 39,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31,54; 35,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,6; 39,46</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>33,94; 37,9</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>30,94; 35,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 36,04</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>29,81; 34,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>510.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>528680</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>522080</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>584803</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>423680</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67527</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57812</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>580801</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>735567</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>635782</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>633342</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>85813</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>82231</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1109481</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1257646</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1220585</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1057022</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>153340</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>140043</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>455451; 610671</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>460876; 586333</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>514887; 665570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>359467; 488621</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59364; 75767</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50303; 66130</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>516899; 648994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>673251; 797998</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>570294; 694248</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>557293; 701895</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77820; 95071</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74387; 90418</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1009922; 1208185</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1167413; 1361158</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1133308; 1329939</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>956738; 1161566</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>141737; 165482</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>129367; 150971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>434715</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>441671</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>464505</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>370425</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23784</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22402</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>513231</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>567769</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>589261</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25788</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>947946</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1009439</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>983386</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>959686</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>49572</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>47579</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>361664; 517948</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>382977; 505067</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>406468; 541361</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>307516; 439711</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18872; 28671</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18401; 26940</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>451404; 573347</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>518735; 627166</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>463579; 578490</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>525573; 657538</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21037; 29861</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20676; 29907</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>860415; 1046004</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>926296; 1099656</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>899070; 1077844</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>864093; 1061881</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>42380; 55823</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>41672; 54666</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>143068</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>162376</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>142931</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>114854</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>149485</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>197336</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>192087</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>145046</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>292552</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>359712</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>335018</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>259900</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104495; 196792</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126310; 205844</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>108439; 183605</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>74698; 165205</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>115841; 183341</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>163796; 227310</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>158805; 222705</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>109432; 183979</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>241443; 355088</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>310911; 409885</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>283067; 378757</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>208481; 317154</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>681.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1124.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1052.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>680.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1106462</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1126126</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1192240</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>908958</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91311</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80214</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1243516</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1500671</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1346749</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1367650</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>111602</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>107408</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2349979</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2626797</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2538989</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2276608</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>202913</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>187622</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>982413; 1221648</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1031714; 1228221</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1076304; 1295971</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>809565; 1024007</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81618; 100929</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>71887; 89207</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1149929; 1339161</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1415046; 1588613</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1262193; 1444787</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1271829; 1477015</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>101203; 121010</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>98048; 116411</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2216104; 2507028</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2499368; 2769946</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2393752; 2673216</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2133393; 2418955</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>189503; 216943</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>175414; 200441</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
